--- a/Email_konulari.xlsx
+++ b/Email_konulari.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanercokyasar/Desktop/TBB/YLSYDer_programlari/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanercokyasar/YLSY_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B44D9-51F9-A047-B69D-3052DDC625A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D358561E-434D-7D49-B319-778DE2F596EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44060" yWindow="780" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MVliste_email_komisyon" sheetId="1" r:id="rId1"/>
+    <sheet name="Konular" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,64 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Isim</t>
-  </si>
-  <si>
-    <t>Isim2</t>
-  </si>
-  <si>
-    <t>Soyisim</t>
-  </si>
-  <si>
-    <t>İl</t>
-  </si>
-  <si>
-    <t>Komisyon</t>
-  </si>
-  <si>
-    <t>AK Parti</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>ADANA</t>
-  </si>
-  <si>
-    <t>Karabay</t>
-  </si>
-  <si>
-    <t>aytackarabay@gmail.com</t>
-  </si>
-  <si>
-    <t>Taner</t>
-  </si>
-  <si>
-    <t>Parti_Adi</t>
-  </si>
-  <si>
-    <t>Eposta</t>
-  </si>
-  <si>
-    <t>Cokyasar</t>
-  </si>
-  <si>
-    <t>tanercokyasar@gmail.com</t>
-  </si>
-  <si>
-    <t>Aytac</t>
-  </si>
-  <si>
-    <t>B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Konu</t>
+  </si>
+  <si>
+    <t>YLSY Burs Programında Sabit Kur Hk.</t>
+  </si>
+  <si>
+    <t>YLSY Sabit Kur Talebi Hk.</t>
+  </si>
+  <si>
+    <t>YLSY Programında Tazminat Sorununu Giderme Adımları Hk.</t>
+  </si>
+  <si>
+    <t>1416 YLSY İçin Sabit Kur Hk.</t>
+  </si>
+  <si>
+    <t>YLSY Burs Programında Tazminat Problemi ve Sabit Kurun Rolü Hk.</t>
+  </si>
+  <si>
+    <t>YLSY Tazminat Sorunu Çözümü İçin Sabit Kur Belirleme Süreci Hk.</t>
+  </si>
+  <si>
+    <t>YLSY Tazminat Sorunu: Sabit Kur Uygulamasının Etkisi ve Düzeltme Süreci Hk.</t>
+  </si>
+  <si>
+    <t>YLSY Programında Tazminat Sorununun Sabit Kur Politikası ile Çözülmesi Hk.</t>
+  </si>
+  <si>
+    <t>YLSY Programında Tazminat Probleminin Sabit Kur Odaklı Çözüm Önerileri Hk.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +102,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,13 +131,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,11 +358,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -394,71 +380,75 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="3"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{CD1BD774-4A7F-4C4E-A668-A47B2D0B0132}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{0F153F8C-5570-FE42-AB4F-2F12861C644E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>